--- a/biology/Médecine/Fadma_Abi/Fadma_Abi.xlsx
+++ b/biology/Médecine/Fadma_Abi/Fadma_Abi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fadma Abi, morte le 2 octobre 2020 est une chirurgienne et professeure marocaine. Elle est considérée comme la première femme marocaine à pratiquer la chirurgie, laquelle était traditionnellement dominée par les hommes au Maroc[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fadma Abi, morte le 2 octobre 2020 est une chirurgienne et professeure marocaine. Elle est considérée comme la première femme marocaine à pratiquer la chirurgie, laquelle était traditionnellement dominée par les hommes au Maroc.
 </t>
         </is>
       </c>
@@ -511,13 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fadma était originaire de la petite ville de Khénifra, dans le centre du Maroc. Elle a vécu à Midelt pendant un certain temps avant de déménager à Meknès afin de poursuivre ses études primaires à Lalla Amina[2].
-Carrière
-Peu après avoir terminé ses études secondaires au Maroc, Fadma s'installe en France pour y faire ses études supérieures. En juillet 1981, elle obtient un diplôme d'anatomie générale et d'organogénèse à l'Université de Montpellier. Elle se spécialise et obtient également un diplôme dans le domaine de la chirurgie générale. En 1982, elle devient ainsi la première chirurgienne du Maroc[2].
-En juin 1989, elle obtient également un certificat d'études en échographie de l'Université de Paris.
-Elle fut présidente du 22e congrès de l'Association marocaine de chirurgie en 2018, puis préside la Mediterranean and Middle Eastern Endoscopic Surgery Association (MMESA) en 2019[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fadma était originaire de la petite ville de Khénifra, dans le centre du Maroc. Elle a vécu à Midelt pendant un certain temps avant de déménager à Meknès afin de poursuivre ses études primaires à Lalla Amina.
 </t>
         </is>
       </c>
@@ -543,12 +553,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu après avoir terminé ses études secondaires au Maroc, Fadma s'installe en France pour y faire ses études supérieures. En juillet 1981, elle obtient un diplôme d'anatomie générale et d'organogénèse à l'Université de Montpellier. Elle se spécialise et obtient également un diplôme dans le domaine de la chirurgie générale. En 1982, elle devient ainsi la première chirurgienne du Maroc.
+En juin 1989, elle obtient également un certificat d'études en échographie de l'Université de Paris.
+Elle fut présidente du 22e congrès de l'Association marocaine de chirurgie en 2018, puis préside la Mediterranean and Middle Eastern Endoscopic Surgery Association (MMESA) en 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadma_Abi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadma_Abi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle meurt à la suite de complications engendrées par le coronavirus le 2 octobre 2020[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle meurt à la suite de complications engendrées par le coronavirus le 2 octobre 2020.
 </t>
         </is>
       </c>
